--- a/data/pca/factorExposure/factorExposure_2016-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01188492994216095</v>
+        <v>-0.01557038517821452</v>
       </c>
       <c r="C2">
-        <v>-0.0513656177748389</v>
+        <v>0.03892603134367244</v>
       </c>
       <c r="D2">
-        <v>-0.04148811036321355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06664708219300919</v>
+      </c>
+      <c r="E2">
+        <v>-0.1015275054828134</v>
+      </c>
+      <c r="F2">
+        <v>-0.07702025616603167</v>
+      </c>
+      <c r="G2">
+        <v>-0.02241625977752418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04327305308422921</v>
+        <v>-0.02675974727250341</v>
       </c>
       <c r="C3">
-        <v>-0.1208294603228174</v>
+        <v>0.06584003346599304</v>
       </c>
       <c r="D3">
-        <v>-0.08815624637143496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07780441518220008</v>
+      </c>
+      <c r="E3">
+        <v>-0.06843642984857692</v>
+      </c>
+      <c r="F3">
+        <v>0.02800559933982185</v>
+      </c>
+      <c r="G3">
+        <v>-0.03671107062272807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06307459800008301</v>
+        <v>-0.06066485746361619</v>
       </c>
       <c r="C4">
-        <v>-0.06606206904778272</v>
+        <v>0.06479452785917399</v>
       </c>
       <c r="D4">
-        <v>-0.03170148245495791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06302427622813644</v>
+      </c>
+      <c r="E4">
+        <v>-0.09952360642505062</v>
+      </c>
+      <c r="F4">
+        <v>-0.0335417971523965</v>
+      </c>
+      <c r="G4">
+        <v>-0.07657060445127023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03964440727871724</v>
+        <v>-0.03697994964472862</v>
       </c>
       <c r="C6">
-        <v>-0.03724107023598804</v>
+        <v>0.02767061380098583</v>
       </c>
       <c r="D6">
-        <v>-0.03257438805790189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06745632235476777</v>
+      </c>
+      <c r="E6">
+        <v>-0.09258216450880417</v>
+      </c>
+      <c r="F6">
+        <v>-0.02374566488308933</v>
+      </c>
+      <c r="G6">
+        <v>-0.05629327014067532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0267612331718526</v>
+        <v>-0.02118134884657571</v>
       </c>
       <c r="C7">
-        <v>-0.04091005221802319</v>
+        <v>0.03656765846421368</v>
       </c>
       <c r="D7">
-        <v>0.002892766723502355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04318159834438392</v>
+      </c>
+      <c r="E7">
+        <v>-0.07625494542289055</v>
+      </c>
+      <c r="F7">
+        <v>-0.06126852605343739</v>
+      </c>
+      <c r="G7">
+        <v>-0.09656056454142617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007942628599312229</v>
+        <v>-0.007382930088536894</v>
       </c>
       <c r="C8">
-        <v>-0.03929555378600396</v>
+        <v>0.0340378265209736</v>
       </c>
       <c r="D8">
-        <v>-0.02949288483407856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0401827933198373</v>
+      </c>
+      <c r="E8">
+        <v>-0.0608189294699416</v>
+      </c>
+      <c r="F8">
+        <v>-0.01323200464472562</v>
+      </c>
+      <c r="G8">
+        <v>-0.03317563941247211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0396625456504093</v>
+        <v>-0.04130306172970861</v>
       </c>
       <c r="C9">
-        <v>-0.04708776856181386</v>
+        <v>0.05086807260806117</v>
       </c>
       <c r="D9">
-        <v>-0.01563147771640098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04471322893208902</v>
+      </c>
+      <c r="E9">
+        <v>-0.07709758339283002</v>
+      </c>
+      <c r="F9">
+        <v>-0.05020473230955734</v>
+      </c>
+      <c r="G9">
+        <v>-0.07647517546721903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07207604813978874</v>
+        <v>-0.09973709608608103</v>
       </c>
       <c r="C10">
-        <v>0.1929166681409382</v>
+        <v>-0.2019257228266176</v>
       </c>
       <c r="D10">
-        <v>0.005071257388453917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01208543706591057</v>
+      </c>
+      <c r="E10">
+        <v>-0.03398170474435028</v>
+      </c>
+      <c r="F10">
+        <v>-0.0175856828785032</v>
+      </c>
+      <c r="G10">
+        <v>-0.0405821074262139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04341392835615742</v>
+        <v>-0.03772930152818014</v>
       </c>
       <c r="C11">
-        <v>-0.05114116885627878</v>
+        <v>0.04752880769741906</v>
       </c>
       <c r="D11">
-        <v>-0.01530519228241183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03354213161057645</v>
+      </c>
+      <c r="E11">
+        <v>-0.03344262328113016</v>
+      </c>
+      <c r="F11">
+        <v>-0.0345063503486512</v>
+      </c>
+      <c r="G11">
+        <v>-0.06736559552589587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04638232061549374</v>
+        <v>-0.04000858355718691</v>
       </c>
       <c r="C12">
-        <v>-0.04579282121317938</v>
+        <v>0.04549770388205151</v>
       </c>
       <c r="D12">
-        <v>-0.002837281558466373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02881451441401061</v>
+      </c>
+      <c r="E12">
+        <v>-0.04121182307581864</v>
+      </c>
+      <c r="F12">
+        <v>-0.03600468013998043</v>
+      </c>
+      <c r="G12">
+        <v>-0.0632092218421408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01632412694250728</v>
+        <v>-0.01438838111795041</v>
       </c>
       <c r="C13">
-        <v>-0.05329027362467093</v>
+        <v>0.04193616319855376</v>
       </c>
       <c r="D13">
-        <v>-0.01076381388444137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05256946361761601</v>
+      </c>
+      <c r="E13">
+        <v>-0.1102595796637498</v>
+      </c>
+      <c r="F13">
+        <v>-0.05300135796076981</v>
+      </c>
+      <c r="G13">
+        <v>-0.08816377387030427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0104833780904335</v>
+        <v>-0.007375377629311412</v>
       </c>
       <c r="C14">
-        <v>-0.03606513017655617</v>
+        <v>0.03051228317626403</v>
       </c>
       <c r="D14">
-        <v>0.001279628048450935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02959314713071708</v>
+      </c>
+      <c r="E14">
+        <v>-0.06390307761150427</v>
+      </c>
+      <c r="F14">
+        <v>-0.06909894292550246</v>
+      </c>
+      <c r="G14">
+        <v>-0.07589710303056767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-6.79523955829211e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006261756224602333</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00884950435578123</v>
+      </c>
+      <c r="E15">
+        <v>-0.006261768862261823</v>
+      </c>
+      <c r="F15">
+        <v>-0.005291286063108682</v>
+      </c>
+      <c r="G15">
+        <v>-0.007008095172829219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04116789431732931</v>
+        <v>-0.03594302232472201</v>
       </c>
       <c r="C16">
-        <v>-0.04812441146919996</v>
+        <v>0.04456704880282233</v>
       </c>
       <c r="D16">
-        <v>-0.005060537594026364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02804046909518493</v>
+      </c>
+      <c r="E16">
+        <v>-0.04830926371607058</v>
+      </c>
+      <c r="F16">
+        <v>-0.04666610422817884</v>
+      </c>
+      <c r="G16">
+        <v>-0.05382121139187917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02674369470986868</v>
+        <v>-0.01876764634994171</v>
       </c>
       <c r="C19">
-        <v>-0.05994140815953864</v>
+        <v>0.04440772998892356</v>
       </c>
       <c r="D19">
-        <v>-0.09194000568739007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09646918720361639</v>
+      </c>
+      <c r="E19">
+        <v>-0.1152792388979896</v>
+      </c>
+      <c r="F19">
+        <v>-0.05620135403110925</v>
+      </c>
+      <c r="G19">
+        <v>-0.03357946189059252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02017275052680315</v>
+        <v>-0.01606204263519178</v>
       </c>
       <c r="C20">
-        <v>-0.04949556259612815</v>
+        <v>0.04026507596297221</v>
       </c>
       <c r="D20">
-        <v>-0.01044833407423581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03906570221568711</v>
+      </c>
+      <c r="E20">
+        <v>-0.08648700597176175</v>
+      </c>
+      <c r="F20">
+        <v>-0.04926568449415444</v>
+      </c>
+      <c r="G20">
+        <v>-0.06037864363908255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01370072082130931</v>
+        <v>-0.01278582278187842</v>
       </c>
       <c r="C21">
-        <v>-0.05584499114010246</v>
+        <v>0.04428749958056766</v>
       </c>
       <c r="D21">
-        <v>-0.03412997648340167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06449836591245908</v>
+      </c>
+      <c r="E21">
+        <v>-0.1369856320487362</v>
+      </c>
+      <c r="F21">
+        <v>-0.07940239897529792</v>
+      </c>
+      <c r="G21">
+        <v>-0.08760153056419086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.00239295039774756</v>
+        <v>-0.004140727594192374</v>
       </c>
       <c r="C22">
-        <v>-0.001128568704281412</v>
+        <v>0.02903223730808634</v>
       </c>
       <c r="D22">
-        <v>-0.008234585612451269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05399567020701344</v>
+      </c>
+      <c r="E22">
+        <v>-0.05839201988137915</v>
+      </c>
+      <c r="F22">
+        <v>0.02685968177710779</v>
+      </c>
+      <c r="G22">
+        <v>-0.05374681414978666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002398967560122728</v>
+        <v>-0.004246755500023854</v>
       </c>
       <c r="C23">
-        <v>-0.001148643084975558</v>
+        <v>0.02906660250015418</v>
       </c>
       <c r="D23">
-        <v>-0.00822466633144785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05332533996454817</v>
+      </c>
+      <c r="E23">
+        <v>-0.05871672177490826</v>
+      </c>
+      <c r="F23">
+        <v>0.02700735855928156</v>
+      </c>
+      <c r="G23">
+        <v>-0.05382960089986995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.038399304212037</v>
+        <v>-0.0369441883942484</v>
       </c>
       <c r="C24">
-        <v>-0.05012446397623811</v>
+        <v>0.05244072834195303</v>
       </c>
       <c r="D24">
-        <v>-0.009645459502956236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02846384487242976</v>
+      </c>
+      <c r="E24">
+        <v>-0.05103216229248358</v>
+      </c>
+      <c r="F24">
+        <v>-0.04728228201564909</v>
+      </c>
+      <c r="G24">
+        <v>-0.06375993281018641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04969214568149124</v>
+        <v>-0.04444061391161534</v>
       </c>
       <c r="C25">
-        <v>-0.05946681569917687</v>
+        <v>0.05551221120015453</v>
       </c>
       <c r="D25">
-        <v>0.002200766041984773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02530279249803854</v>
+      </c>
+      <c r="E25">
+        <v>-0.04177729267999129</v>
+      </c>
+      <c r="F25">
+        <v>-0.03824750917523597</v>
+      </c>
+      <c r="G25">
+        <v>-0.0787878840007737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01898122777036674</v>
+        <v>-0.01753188488105358</v>
       </c>
       <c r="C26">
-        <v>-0.01725185878737347</v>
+        <v>0.01650599920153653</v>
       </c>
       <c r="D26">
-        <v>-0.008643650781532491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02888801023901247</v>
+      </c>
+      <c r="E26">
+        <v>-0.05816379548057186</v>
+      </c>
+      <c r="F26">
+        <v>-0.05152523559434258</v>
+      </c>
+      <c r="G26">
+        <v>-0.04403054135731006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08858487570817214</v>
+        <v>-0.1364003052415099</v>
       </c>
       <c r="C28">
-        <v>0.2534650006701365</v>
+        <v>-0.258906706290732</v>
       </c>
       <c r="D28">
-        <v>0.007710126842220237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02752143945406159</v>
+      </c>
+      <c r="E28">
+        <v>-0.05605392719034537</v>
+      </c>
+      <c r="F28">
+        <v>-0.02946840175716594</v>
+      </c>
+      <c r="G28">
+        <v>-0.05362366300030719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008588898016969927</v>
+        <v>-0.007934952837374724</v>
       </c>
       <c r="C29">
-        <v>-0.03142557785979794</v>
+        <v>0.02838893969143161</v>
       </c>
       <c r="D29">
-        <v>0.006408139372437656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02205307404467771</v>
+      </c>
+      <c r="E29">
+        <v>-0.06322403504638853</v>
+      </c>
+      <c r="F29">
+        <v>-0.05918312966968141</v>
+      </c>
+      <c r="G29">
+        <v>-0.08027147632850302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04731400705961718</v>
+        <v>-0.0447586401783649</v>
       </c>
       <c r="C30">
-        <v>-0.04867968947619676</v>
+        <v>0.05648426678550072</v>
       </c>
       <c r="D30">
-        <v>-0.07846958225139106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1058276756183312</v>
+      </c>
+      <c r="E30">
+        <v>-0.0855452739628309</v>
+      </c>
+      <c r="F30">
+        <v>-0.05666332100605021</v>
+      </c>
+      <c r="G30">
+        <v>-0.05935312186966189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06248285161230314</v>
+        <v>-0.06010148584062721</v>
       </c>
       <c r="C31">
-        <v>-0.04704915285235415</v>
+        <v>0.06207310988148714</v>
       </c>
       <c r="D31">
-        <v>0.04495265199296243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01335667890773066</v>
+      </c>
+      <c r="E31">
+        <v>-0.07757566187720319</v>
+      </c>
+      <c r="F31">
+        <v>-0.01769164116857044</v>
+      </c>
+      <c r="G31">
+        <v>-0.07602222157151127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003716311739468256</v>
+        <v>-0.009051574550067281</v>
       </c>
       <c r="C32">
-        <v>-0.04096873669946746</v>
+        <v>0.03470649222989818</v>
       </c>
       <c r="D32">
-        <v>-0.06152151108045734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05805259682123697</v>
+      </c>
+      <c r="E32">
+        <v>-0.06459698572626792</v>
+      </c>
+      <c r="F32">
+        <v>-0.05867538614903494</v>
+      </c>
+      <c r="G32">
+        <v>-0.06092741433063554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03539112018708583</v>
+        <v>-0.0287000486103261</v>
       </c>
       <c r="C33">
-        <v>-0.0576599665138715</v>
+        <v>0.05221434270790681</v>
       </c>
       <c r="D33">
-        <v>-0.03831833882712866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0748703267085437</v>
+      </c>
+      <c r="E33">
+        <v>-0.09512133587124745</v>
+      </c>
+      <c r="F33">
+        <v>-0.0587449109474848</v>
+      </c>
+      <c r="G33">
+        <v>-0.09816033065235603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04608606106891775</v>
+        <v>-0.04152847498079429</v>
       </c>
       <c r="C34">
-        <v>-0.0646288939510675</v>
+        <v>0.06275446808351313</v>
       </c>
       <c r="D34">
-        <v>-0.02320370109937414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03934657238487959</v>
+      </c>
+      <c r="E34">
+        <v>-0.02333116521408003</v>
+      </c>
+      <c r="F34">
+        <v>-0.04929888802612835</v>
+      </c>
+      <c r="G34">
+        <v>-0.07120811132459563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01840274237371706</v>
+        <v>-0.01574155482776572</v>
       </c>
       <c r="C36">
-        <v>-0.01600929284898987</v>
+        <v>0.0135422025216441</v>
       </c>
       <c r="D36">
-        <v>0.0008507312914719895</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02807707605432982</v>
+      </c>
+      <c r="E36">
+        <v>-0.06761429821607234</v>
+      </c>
+      <c r="F36">
+        <v>-0.04440229701650433</v>
+      </c>
+      <c r="G36">
+        <v>-0.06162139103956749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02985014385349632</v>
+        <v>-0.02376322916237058</v>
       </c>
       <c r="C38">
-        <v>-0.0329682082355682</v>
+        <v>0.02471791517713831</v>
       </c>
       <c r="D38">
-        <v>0.01276989226441733</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02138967486113451</v>
+      </c>
+      <c r="E38">
+        <v>-0.05645931089928983</v>
+      </c>
+      <c r="F38">
+        <v>-0.03602281695006242</v>
+      </c>
+      <c r="G38">
+        <v>-0.04411447291375608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04885817619090955</v>
+        <v>-0.04241534487702688</v>
       </c>
       <c r="C39">
-        <v>-0.06054687116953646</v>
+        <v>0.06223300121453414</v>
       </c>
       <c r="D39">
-        <v>-0.02168703690545398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05349596572956802</v>
+      </c>
+      <c r="E39">
+        <v>-0.05660490699708962</v>
+      </c>
+      <c r="F39">
+        <v>-0.06807486439625578</v>
+      </c>
+      <c r="G39">
+        <v>-0.06008974009722781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01243979302657623</v>
+        <v>-0.01528809185421909</v>
       </c>
       <c r="C40">
-        <v>-0.05401654117593009</v>
+        <v>0.03806366280410641</v>
       </c>
       <c r="D40">
-        <v>-0.01222731427020983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03334530190269169</v>
+      </c>
+      <c r="E40">
+        <v>-0.09690939325105406</v>
+      </c>
+      <c r="F40">
+        <v>-0.03295700624241808</v>
+      </c>
+      <c r="G40">
+        <v>-0.09473292458441156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02449518634197366</v>
+        <v>-0.02051160970537034</v>
       </c>
       <c r="C41">
-        <v>-0.01232942328038808</v>
+        <v>0.009428999961447245</v>
       </c>
       <c r="D41">
-        <v>-0.002808207150035083</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02029175887594782</v>
+      </c>
+      <c r="E41">
+        <v>-0.06939988829934372</v>
+      </c>
+      <c r="F41">
+        <v>-0.03827921696868491</v>
+      </c>
+      <c r="G41">
+        <v>-0.04750329307001405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04577108452619298</v>
+        <v>-0.03240008887728928</v>
       </c>
       <c r="C43">
-        <v>-0.0338749755445643</v>
+        <v>0.02500830443583948</v>
       </c>
       <c r="D43">
-        <v>-0.02213271724579669</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04849265553989646</v>
+      </c>
+      <c r="E43">
+        <v>-0.0855793852909786</v>
+      </c>
+      <c r="F43">
+        <v>-0.03054939965678122</v>
+      </c>
+      <c r="G43">
+        <v>-0.07108775377542158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01753079186637197</v>
+        <v>-0.01864151468563574</v>
       </c>
       <c r="C44">
-        <v>-0.07060072097941657</v>
+        <v>0.04794420976200519</v>
       </c>
       <c r="D44">
-        <v>-0.00556001596468947</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03629809417448229</v>
+      </c>
+      <c r="E44">
+        <v>-0.09282400203612803</v>
+      </c>
+      <c r="F44">
+        <v>-0.05723526802141671</v>
+      </c>
+      <c r="G44">
+        <v>-0.04785270859225095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01286013093721728</v>
+        <v>-0.01306218763023246</v>
       </c>
       <c r="C46">
-        <v>-0.02756924020451911</v>
+        <v>0.02952094891691527</v>
       </c>
       <c r="D46">
-        <v>0.008316133026994502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01925777926669117</v>
+      </c>
+      <c r="E46">
+        <v>-0.07643315303344521</v>
+      </c>
+      <c r="F46">
+        <v>-0.06803884835565023</v>
+      </c>
+      <c r="G46">
+        <v>-0.07616370693361613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09187340515399241</v>
+        <v>-0.09377065655306918</v>
       </c>
       <c r="C47">
-        <v>-0.06761435833807319</v>
+        <v>0.07893113123289597</v>
       </c>
       <c r="D47">
-        <v>0.04605899410840155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0218537509946731</v>
+      </c>
+      <c r="E47">
+        <v>-0.06791720026937517</v>
+      </c>
+      <c r="F47">
+        <v>-0.02111207203005366</v>
+      </c>
+      <c r="G47">
+        <v>-0.07814373852997904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02069376383661465</v>
+        <v>-0.01888234075703023</v>
       </c>
       <c r="C48">
-        <v>-0.01350663576281003</v>
+        <v>0.01622554178827617</v>
       </c>
       <c r="D48">
-        <v>0.01657521515456705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0146243955182937</v>
+      </c>
+      <c r="E48">
+        <v>-0.08077847962544148</v>
+      </c>
+      <c r="F48">
+        <v>-0.05875982997685209</v>
+      </c>
+      <c r="G48">
+        <v>-0.06780586218858835</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08579180496753905</v>
+        <v>-0.0729889089416107</v>
       </c>
       <c r="C50">
-        <v>-0.08241051233096765</v>
+        <v>0.0747688203466365</v>
       </c>
       <c r="D50">
-        <v>0.04442139310979486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.004272562961790799</v>
+      </c>
+      <c r="E50">
+        <v>-0.08341178841018801</v>
+      </c>
+      <c r="F50">
+        <v>0.009499392640380584</v>
+      </c>
+      <c r="G50">
+        <v>-0.08600649662911027</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01741946904202461</v>
+        <v>-0.0120941395421139</v>
       </c>
       <c r="C51">
-        <v>-0.04934984118573497</v>
+        <v>0.03093809581021681</v>
       </c>
       <c r="D51">
-        <v>-0.04487867771448329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05805825254935336</v>
+      </c>
+      <c r="E51">
+        <v>-0.05686876807829635</v>
+      </c>
+      <c r="F51">
+        <v>-0.06305432040523411</v>
+      </c>
+      <c r="G51">
+        <v>-0.05801268940275893</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08479240174970423</v>
+        <v>-0.09809344823789856</v>
       </c>
       <c r="C53">
-        <v>-0.07677028453319816</v>
+        <v>0.08456928604993594</v>
       </c>
       <c r="D53">
-        <v>0.06798812708773763</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06055133087777995</v>
+      </c>
+      <c r="E53">
+        <v>-0.07123842543261555</v>
+      </c>
+      <c r="F53">
+        <v>-0.02441990032301998</v>
+      </c>
+      <c r="G53">
+        <v>-0.07240674358469518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03767550393867086</v>
+        <v>-0.03091169267472622</v>
       </c>
       <c r="C54">
-        <v>-0.03469128812754707</v>
+        <v>0.03157596997380825</v>
       </c>
       <c r="D54">
-        <v>0.0007779124754445398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0286222418463691</v>
+      </c>
+      <c r="E54">
+        <v>-0.06723423467365282</v>
+      </c>
+      <c r="F54">
+        <v>-0.06383767605977983</v>
+      </c>
+      <c r="G54">
+        <v>-0.08330952059135377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08083325204884069</v>
+        <v>-0.09086260970488201</v>
       </c>
       <c r="C55">
-        <v>-0.05191703741554117</v>
+        <v>0.06600125811065098</v>
       </c>
       <c r="D55">
-        <v>0.07438923416334653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06105816429687572</v>
+      </c>
+      <c r="E55">
+        <v>-0.04612895410689431</v>
+      </c>
+      <c r="F55">
+        <v>-0.002028589018561858</v>
+      </c>
+      <c r="G55">
+        <v>-0.05534073017725548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1537820922350112</v>
+        <v>-0.1558358716767221</v>
       </c>
       <c r="C56">
-        <v>-0.08031512669699264</v>
+        <v>0.09943502968421063</v>
       </c>
       <c r="D56">
-        <v>0.06299421698127272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05437039382163656</v>
+      </c>
+      <c r="E56">
+        <v>-0.03727550241747377</v>
+      </c>
+      <c r="F56">
+        <v>0.01073199638374464</v>
+      </c>
+      <c r="G56">
+        <v>-0.02558821925637675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04853301591559624</v>
+        <v>-0.03092645189708916</v>
       </c>
       <c r="C58">
-        <v>-0.01047821015170393</v>
+        <v>0.01977750167422776</v>
       </c>
       <c r="D58">
-        <v>-0.4935295669827713</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3927624908754986</v>
+      </c>
+      <c r="E58">
+        <v>-0.5557702026562763</v>
+      </c>
+      <c r="F58">
+        <v>0.4097053340484963</v>
+      </c>
+      <c r="G58">
+        <v>0.5189197547625423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1227805579452737</v>
+        <v>-0.1392230706511108</v>
       </c>
       <c r="C59">
-        <v>0.2062735572073456</v>
+        <v>-0.1927451956094385</v>
       </c>
       <c r="D59">
-        <v>-0.02328866685232465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02923308514790842</v>
+      </c>
+      <c r="E59">
+        <v>-0.02944195521467888</v>
+      </c>
+      <c r="F59">
+        <v>-0.03147384592189881</v>
+      </c>
+      <c r="G59">
+        <v>0.005107782467961678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3001596899460765</v>
+        <v>-0.2710747843266827</v>
       </c>
       <c r="C60">
-        <v>-0.1089570523050617</v>
+        <v>0.1032554805453139</v>
       </c>
       <c r="D60">
-        <v>-0.2044134993832972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2442527175610703</v>
+      </c>
+      <c r="E60">
+        <v>0.2511269092019399</v>
+      </c>
+      <c r="F60">
+        <v>0.08010939552375379</v>
+      </c>
+      <c r="G60">
+        <v>-0.05478023310961155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04744358548173765</v>
+        <v>-0.04384293013356643</v>
       </c>
       <c r="C61">
-        <v>-0.05910775222021059</v>
+        <v>0.05752908353824143</v>
       </c>
       <c r="D61">
-        <v>-0.01674325613050316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04485937798312743</v>
+      </c>
+      <c r="E61">
+        <v>-0.05724695023700527</v>
+      </c>
+      <c r="F61">
+        <v>-0.05069001989439436</v>
+      </c>
+      <c r="G61">
+        <v>-0.07329756983643429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01803224150093943</v>
+        <v>-0.01762411076052233</v>
       </c>
       <c r="C63">
-        <v>-0.03384778550914887</v>
+        <v>0.03102176192445862</v>
       </c>
       <c r="D63">
-        <v>0.01711934060766105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01884611422282407</v>
+      </c>
+      <c r="E63">
+        <v>-0.06911565690377923</v>
+      </c>
+      <c r="F63">
+        <v>-0.03460085530220153</v>
+      </c>
+      <c r="G63">
+        <v>-0.07203425034726504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05323117584770219</v>
+        <v>-0.05819047286963804</v>
       </c>
       <c r="C64">
-        <v>-0.04991945144031114</v>
+        <v>0.05878979444116985</v>
       </c>
       <c r="D64">
-        <v>-0.01108654483650725</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01226454799164579</v>
+      </c>
+      <c r="E64">
+        <v>-0.04723722762728723</v>
+      </c>
+      <c r="F64">
+        <v>-0.04882114764628484</v>
+      </c>
+      <c r="G64">
+        <v>-0.05346069562841723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07954524574868753</v>
+        <v>-0.06494458324664223</v>
       </c>
       <c r="C65">
-        <v>-0.02260756164591775</v>
+        <v>0.02527987300677542</v>
       </c>
       <c r="D65">
-        <v>-0.05864476951738747</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0898479831509344</v>
+      </c>
+      <c r="E65">
+        <v>-0.05316177732653325</v>
+      </c>
+      <c r="F65">
+        <v>0.001294345981678551</v>
+      </c>
+      <c r="G65">
+        <v>-0.01780786551804526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06228095826260047</v>
+        <v>-0.05384096958293054</v>
       </c>
       <c r="C66">
-        <v>-0.08079191765144972</v>
+        <v>0.07813008947333221</v>
       </c>
       <c r="D66">
-        <v>-0.03931870298235492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07669895200583145</v>
+      </c>
+      <c r="E66">
+        <v>-0.07095848042804852</v>
+      </c>
+      <c r="F66">
+        <v>-0.05778617118482433</v>
+      </c>
+      <c r="G66">
+        <v>-0.07243650835015737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05025813998944663</v>
+        <v>-0.04403734453411531</v>
       </c>
       <c r="C67">
-        <v>-0.03250263584589484</v>
+        <v>0.02886004857253733</v>
       </c>
       <c r="D67">
-        <v>0.02176231624885118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00327916838367044</v>
+      </c>
+      <c r="E67">
+        <v>-0.03249454155408507</v>
+      </c>
+      <c r="F67">
+        <v>-0.02427488008829702</v>
+      </c>
+      <c r="G67">
+        <v>-0.03660734617240552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.123209589694855</v>
+        <v>-0.1475352234540698</v>
       </c>
       <c r="C68">
-        <v>0.2801643534333332</v>
+        <v>-0.2437475040440387</v>
       </c>
       <c r="D68">
-        <v>0.01164444900492103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01349302949771963</v>
+      </c>
+      <c r="E68">
+        <v>-0.04200857292699454</v>
+      </c>
+      <c r="F68">
+        <v>-0.006500772529861293</v>
+      </c>
+      <c r="G68">
+        <v>-0.02384389251498645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09420467485790436</v>
+        <v>-0.08947593914581435</v>
       </c>
       <c r="C69">
-        <v>-0.07235250418154382</v>
+        <v>0.09047687082283844</v>
       </c>
       <c r="D69">
-        <v>0.04862521301911217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01178484388382143</v>
+      </c>
+      <c r="E69">
+        <v>-0.06152662401934507</v>
+      </c>
+      <c r="F69">
+        <v>-0.05195387607689737</v>
+      </c>
+      <c r="G69">
+        <v>-0.07529306417372307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1151630925339104</v>
+        <v>-0.1423913126036672</v>
       </c>
       <c r="C71">
-        <v>0.2602700947688877</v>
+        <v>-0.2438589790994335</v>
       </c>
       <c r="D71">
-        <v>-0.004805627066152193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.004034589722304947</v>
+      </c>
+      <c r="E71">
+        <v>-0.06125083793417349</v>
+      </c>
+      <c r="F71">
+        <v>-0.004691949927088486</v>
+      </c>
+      <c r="G71">
+        <v>-0.05719946501339891</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09915916519680178</v>
+        <v>-0.1049757105432309</v>
       </c>
       <c r="C72">
-        <v>-0.04040238849339588</v>
+        <v>0.04712445437808379</v>
       </c>
       <c r="D72">
-        <v>-0.001823491081265709</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03669174716034961</v>
+      </c>
+      <c r="E72">
+        <v>-0.020432949131979</v>
+      </c>
+      <c r="F72">
+        <v>-0.02400786427913398</v>
+      </c>
+      <c r="G72">
+        <v>-0.09986018902433939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3856355609770182</v>
+        <v>-0.3267179175168863</v>
       </c>
       <c r="C73">
-        <v>-0.0368933699793531</v>
+        <v>0.06324122075281376</v>
       </c>
       <c r="D73">
-        <v>-0.4954361830656464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4962791612453069</v>
+      </c>
+      <c r="E73">
+        <v>0.475994125624766</v>
+      </c>
+      <c r="F73">
+        <v>0.237608372432432</v>
+      </c>
+      <c r="G73">
+        <v>-0.02690432551848068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1066998938278421</v>
+        <v>-0.1116184198272994</v>
       </c>
       <c r="C74">
-        <v>-0.09422736336183943</v>
+        <v>0.09267234039266191</v>
       </c>
       <c r="D74">
-        <v>0.05037233362428902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04729534393028412</v>
+      </c>
+      <c r="E74">
+        <v>-0.0563018655001786</v>
+      </c>
+      <c r="F74">
+        <v>0.00790694789311918</v>
+      </c>
+      <c r="G74">
+        <v>-0.05449545999365214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2561650617725162</v>
+        <v>-0.259359862619638</v>
       </c>
       <c r="C75">
-        <v>-0.08575776319923246</v>
+        <v>0.1202388585364734</v>
       </c>
       <c r="D75">
-        <v>0.1495348034406492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1522737347390854</v>
+      </c>
+      <c r="E75">
+        <v>-0.02292579648985584</v>
+      </c>
+      <c r="F75">
+        <v>0.04419463067678923</v>
+      </c>
+      <c r="G75">
+        <v>0.04076339173398578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1164418489054733</v>
+        <v>-0.1297235830246207</v>
       </c>
       <c r="C76">
-        <v>-0.07809922254522521</v>
+        <v>0.08947835936953065</v>
       </c>
       <c r="D76">
-        <v>0.07721233220990867</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0766587116953734</v>
+      </c>
+      <c r="E76">
+        <v>-0.07908962484044185</v>
+      </c>
+      <c r="F76">
+        <v>-0.01525004358188973</v>
+      </c>
+      <c r="G76">
+        <v>-0.03505447107473293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08601537001565286</v>
+        <v>-0.06941352942571892</v>
       </c>
       <c r="C77">
-        <v>-0.04242231370350633</v>
+        <v>0.05790702178548639</v>
       </c>
       <c r="D77">
-        <v>-0.05496804042369867</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06328936342694881</v>
+      </c>
+      <c r="E77">
+        <v>-0.09596149018087545</v>
+      </c>
+      <c r="F77">
+        <v>-0.1790075802339675</v>
+      </c>
+      <c r="G77">
+        <v>0.1101781740573278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05061066633051327</v>
+        <v>-0.04888505724143317</v>
       </c>
       <c r="C78">
-        <v>-0.03732725467487711</v>
+        <v>0.05142473249760512</v>
       </c>
       <c r="D78">
-        <v>-0.0344633643324232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06773458897552256</v>
+      </c>
+      <c r="E78">
+        <v>-0.06504218957414083</v>
+      </c>
+      <c r="F78">
+        <v>-0.05183547761906238</v>
+      </c>
+      <c r="G78">
+        <v>-0.06107775499463189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>5.962953610489947e-05</v>
+        <v>-0.03437923344858437</v>
       </c>
       <c r="C79">
-        <v>-0.0007047580788881341</v>
+        <v>0.04924921835045172</v>
       </c>
       <c r="D79">
-        <v>-0.002325700954246611</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08211554157707551</v>
+      </c>
+      <c r="E79">
+        <v>-0.07257462257600662</v>
+      </c>
+      <c r="F79">
+        <v>0.02706152458917524</v>
+      </c>
+      <c r="G79">
+        <v>-0.03136183995605102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03967640251874905</v>
+        <v>-0.03080595162306477</v>
       </c>
       <c r="C80">
-        <v>-0.05357688812617045</v>
+        <v>0.05245136582232179</v>
       </c>
       <c r="D80">
-        <v>-0.0364386064700027</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04396853314944028</v>
+      </c>
+      <c r="E80">
+        <v>-0.01408211257266688</v>
+      </c>
+      <c r="F80">
+        <v>-0.05271011769465263</v>
+      </c>
+      <c r="G80">
+        <v>-0.0005809192788481218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1439161088679326</v>
+        <v>-0.1427021243523138</v>
       </c>
       <c r="C81">
-        <v>-0.07377713179402684</v>
+        <v>0.09166113393266194</v>
       </c>
       <c r="D81">
-        <v>0.1179647309021082</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1222074454914302</v>
+      </c>
+      <c r="E81">
+        <v>-0.06894092841566432</v>
+      </c>
+      <c r="F81">
+        <v>0.0198280403979037</v>
+      </c>
+      <c r="G81">
+        <v>0.01026810825856259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2028507625537526</v>
+        <v>-0.2326275508066627</v>
       </c>
       <c r="C82">
-        <v>-0.09108687156097188</v>
+        <v>0.1546142674969656</v>
       </c>
       <c r="D82">
-        <v>0.1980607744825124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2465782856709108</v>
+      </c>
+      <c r="E82">
+        <v>0.04161945306371969</v>
+      </c>
+      <c r="F82">
+        <v>-0.03590456364422433</v>
+      </c>
+      <c r="G82">
+        <v>-0.06389786437718815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04455076616280497</v>
+        <v>-0.0300836175504672</v>
       </c>
       <c r="C83">
-        <v>-0.02987494184317004</v>
+        <v>0.04479505320308799</v>
       </c>
       <c r="D83">
-        <v>-0.0416434717646163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03371054976718478</v>
+      </c>
+      <c r="E83">
+        <v>-0.02570804828073943</v>
+      </c>
+      <c r="F83">
+        <v>-0.02315317600245322</v>
+      </c>
+      <c r="G83">
+        <v>0.005164277125825493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001171808534622588</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000583116988317904</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0008331319479117928</v>
+      </c>
+      <c r="E84">
+        <v>-0.003017594011358091</v>
+      </c>
+      <c r="F84">
+        <v>0.001584824219852294</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002331455312372329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2200723786594834</v>
+        <v>-0.2034135027916713</v>
       </c>
       <c r="C85">
-        <v>-0.09254056349286351</v>
+        <v>0.1099384841124078</v>
       </c>
       <c r="D85">
-        <v>0.1635763130126922</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1282486754348774</v>
+      </c>
+      <c r="E85">
+        <v>0.007484334985928396</v>
+      </c>
+      <c r="F85">
+        <v>0.1018240814510886</v>
+      </c>
+      <c r="G85">
+        <v>-0.009717002717881213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01065743229262507</v>
+        <v>-0.01424850082580143</v>
       </c>
       <c r="C86">
-        <v>-0.02885472866104406</v>
+        <v>0.01821778615480647</v>
       </c>
       <c r="D86">
-        <v>-0.04581935573406502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06744117891161072</v>
+      </c>
+      <c r="E86">
+        <v>-0.08180093084682814</v>
+      </c>
+      <c r="F86">
+        <v>-0.07722005016070869</v>
+      </c>
+      <c r="G86">
+        <v>-0.06991607772570543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03000463833092492</v>
+        <v>-0.02980686336972248</v>
       </c>
       <c r="C87">
-        <v>-0.001696656814352892</v>
+        <v>0.01299458885990447</v>
       </c>
       <c r="D87">
-        <v>-0.08107823724760663</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09012293654775307</v>
+      </c>
+      <c r="E87">
+        <v>-0.1286303336354697</v>
+      </c>
+      <c r="F87">
+        <v>-0.07232797400583421</v>
+      </c>
+      <c r="G87">
+        <v>0.007316074393523935</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1109433413718296</v>
+        <v>-0.09424082068663692</v>
       </c>
       <c r="C88">
-        <v>-0.0836411271024093</v>
+        <v>0.06709714864178859</v>
       </c>
       <c r="D88">
-        <v>0.01593359548145565</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01652162071587418</v>
+      </c>
+      <c r="E88">
+        <v>-0.0564606544139435</v>
+      </c>
+      <c r="F88">
+        <v>-0.04310566927828418</v>
+      </c>
+      <c r="G88">
+        <v>-0.03040890728743822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1744814907362701</v>
+        <v>-0.2123718968892683</v>
       </c>
       <c r="C89">
-        <v>0.3809063063658449</v>
+        <v>-0.3841486226405968</v>
       </c>
       <c r="D89">
-        <v>0.03180831955743041</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01423819892910691</v>
+      </c>
+      <c r="E89">
+        <v>-0.07809718758178309</v>
+      </c>
+      <c r="F89">
+        <v>-0.08687945694423695</v>
+      </c>
+      <c r="G89">
+        <v>0.005067683794433193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1685950697317892</v>
+        <v>-0.1937093875848579</v>
       </c>
       <c r="C90">
-        <v>0.3346179557001285</v>
+        <v>-0.3112669366801372</v>
       </c>
       <c r="D90">
-        <v>0.04086025228782301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01726977827268762</v>
+      </c>
+      <c r="E90">
+        <v>-0.05772624014969625</v>
+      </c>
+      <c r="F90">
+        <v>-0.02721195895892618</v>
+      </c>
+      <c r="G90">
+        <v>-0.01590759159465791</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1901398353877181</v>
+        <v>-0.1877325705574056</v>
       </c>
       <c r="C91">
-        <v>-0.1240856507015366</v>
+        <v>0.1398723887493113</v>
       </c>
       <c r="D91">
-        <v>0.1336821097352943</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.127165979822209</v>
+      </c>
+      <c r="E91">
+        <v>-0.04968374327367187</v>
+      </c>
+      <c r="F91">
+        <v>0.009866174530528023</v>
+      </c>
+      <c r="G91">
+        <v>0.003177773907550543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1595728287273847</v>
+        <v>-0.1787265621207455</v>
       </c>
       <c r="C92">
-        <v>0.2960849772939492</v>
+        <v>-0.298946568806848</v>
       </c>
       <c r="D92">
-        <v>0.02589068661212395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01363239003240974</v>
+      </c>
+      <c r="E92">
+        <v>-0.0674740299924113</v>
+      </c>
+      <c r="F92">
+        <v>-0.05065735413811153</v>
+      </c>
+      <c r="G92">
+        <v>-0.0266188894228329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1877744599632958</v>
+        <v>-0.2130976480779165</v>
       </c>
       <c r="C93">
-        <v>0.3378873028985847</v>
+        <v>-0.3210909581381653</v>
       </c>
       <c r="D93">
-        <v>0.04907210377926287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01954953608430143</v>
+      </c>
+      <c r="E93">
+        <v>-0.04450202903067639</v>
+      </c>
+      <c r="F93">
+        <v>0.001089600099337011</v>
+      </c>
+      <c r="G93">
+        <v>-0.035105548046166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3499646251938356</v>
+        <v>-0.3475454044006915</v>
       </c>
       <c r="C94">
-        <v>-0.132933494101203</v>
+        <v>0.175064779998717</v>
       </c>
       <c r="D94">
-        <v>0.4008315583475182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4025761195449207</v>
+      </c>
+      <c r="E94">
+        <v>0.009942154156297314</v>
+      </c>
+      <c r="F94">
+        <v>0.1205179202184096</v>
+      </c>
+      <c r="G94">
+        <v>0.4347744725133173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1234592270885779</v>
+        <v>-0.09004987725987676</v>
       </c>
       <c r="C95">
-        <v>-0.04363344516097166</v>
+        <v>0.05308152806375949</v>
       </c>
       <c r="D95">
-        <v>-0.2330872085544583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1987227966884805</v>
+      </c>
+      <c r="E95">
+        <v>0.153793536062138</v>
+      </c>
+      <c r="F95">
+        <v>-0.7447888471096807</v>
+      </c>
+      <c r="G95">
+        <v>0.5083441484624842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.189737172741632</v>
+        <v>-0.1855262151634915</v>
       </c>
       <c r="C98">
-        <v>-0.02857576448215785</v>
+        <v>0.0478303677122678</v>
       </c>
       <c r="D98">
-        <v>-0.1809987986862505</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2018841043694919</v>
+      </c>
+      <c r="E98">
+        <v>0.1465377576284317</v>
+      </c>
+      <c r="F98">
+        <v>0.08952607453113526</v>
+      </c>
+      <c r="G98">
+        <v>-0.07608924436729393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00836647523028893</v>
+        <v>-0.007936649848894594</v>
       </c>
       <c r="C101">
-        <v>-0.03144415772208469</v>
+        <v>0.02792168022993187</v>
       </c>
       <c r="D101">
-        <v>0.006186697357549813</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02196076359957375</v>
+      </c>
+      <c r="E101">
+        <v>-0.06391120272715212</v>
+      </c>
+      <c r="F101">
+        <v>-0.0599234285043805</v>
+      </c>
+      <c r="G101">
+        <v>-0.08011670763085781</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1211428074122643</v>
+        <v>-0.1256019688535382</v>
       </c>
       <c r="C102">
-        <v>-0.06462892476071254</v>
+        <v>0.09646712547956184</v>
       </c>
       <c r="D102">
-        <v>0.04985571419783288</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06070913567325518</v>
+      </c>
+      <c r="E102">
+        <v>0.01380370588924706</v>
+      </c>
+      <c r="F102">
+        <v>-0.02297276026791452</v>
+      </c>
+      <c r="G102">
+        <v>0.0004180183203434182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
